--- a/go_std_rpc.xlsx
+++ b/go_std_rpc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="5" r:id="rId1"/>
@@ -4718,6 +4718,57 @@
           <a:solidFill>
             <a:srgbClr val="00B050"/>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>106135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直接箭头连接符 98"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8172450" y="11209564"/>
+          <a:ext cx="17038864" cy="4498522"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7269,11 +7320,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7286,11 +7337,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BV181" sqref="BV181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7306,9 +7357,9 @@
       <selection activeCell="AK77" sqref="AK77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
